--- a/---- Users/Usuarios.xlsx
+++ b/---- Users/Usuarios.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\UiPath\AFIP bot\---- Users\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\UiPath\AFIP bot v2\---- Users\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11BF26C9-63FD-4B18-9823-561939800BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6413381-6097-4ACB-B5EB-7F46D85E8CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -679,7 +679,7 @@
   <dimension ref="A1:Z29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -765,87 +765,83 @@
     </row>
     <row r="3" spans="1:26" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B3" s="10">
-        <v>20233760847</v>
+        <v>20215874991</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="12">
-        <v>30715935062</v>
-      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="12"/>
       <c r="H3" s="6"/>
       <c r="I3" s="7"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4" s="10">
-        <v>20215874991</v>
+        <v>20359897945</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="12"/>
+      <c r="F4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="12">
+        <v>30715921665</v>
+      </c>
       <c r="H4" s="6"/>
       <c r="I4" s="7"/>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B5" s="10">
-        <v>20359897945</v>
+        <v>20041466864</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="12">
-        <v>30715921665</v>
-      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="12"/>
       <c r="H5" s="6"/>
       <c r="I5" s="7"/>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:26" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B6" s="10">
-        <v>20041466864</v>
+        <v>20218433538</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>8</v>
@@ -861,13 +857,13 @@
     </row>
     <row r="7" spans="1:26" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B7" s="10">
-        <v>20218433538</v>
+        <v>20045957617</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>8</v>
@@ -883,113 +879,112 @@
     </row>
     <row r="8" spans="1:26" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B8" s="10">
-        <v>20045957617</v>
+        <v>20179212413</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="12"/>
+        <v>11</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="12">
+        <v>33682755879</v>
+      </c>
       <c r="H8" s="6"/>
       <c r="I8" s="7"/>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B9" s="10">
-        <v>20179212413</v>
+        <v>20221260792</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="12">
-        <v>33682755879</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="12"/>
       <c r="H9" s="6"/>
       <c r="I9" s="7"/>
-      <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:26" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B10" s="10">
-        <v>20221260792</v>
+        <v>20101961851</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="12"/>
+        <v>11</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="12">
+        <v>30715998552</v>
+      </c>
       <c r="H10" s="6"/>
       <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:26" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B11" s="10">
-        <v>20101961851</v>
+        <v>20204265292</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="12">
-        <v>30715998552</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="12"/>
       <c r="H11" s="6"/>
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:26" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B12" s="10">
-        <v>20204265292</v>
+        <v>27054888762</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="12"/>
@@ -998,19 +993,19 @@
     </row>
     <row r="13" spans="1:26" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B13" s="10">
-        <v>27054888762</v>
+        <v>20216455372</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="12"/>
@@ -1019,13 +1014,13 @@
     </row>
     <row r="14" spans="1:26" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B14" s="10">
-        <v>20216455372</v>
+        <v>27308210427</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>8</v>
@@ -1040,59 +1035,59 @@
     </row>
     <row r="15" spans="1:26" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B15" s="10">
-        <v>27308210427</v>
+        <v>20279438664</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="12"/>
+      <c r="F15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="12">
+        <v>30710696477</v>
+      </c>
       <c r="H15" s="6"/>
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:26" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B16" s="10">
-        <v>20279438664</v>
+        <v>27179723552</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" s="12">
-        <v>30710696477</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="12"/>
       <c r="H16" s="6"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B17" s="10">
-        <v>27179723552</v>
+        <v>20204203858</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>8</v>
@@ -1105,61 +1100,61 @@
       <c r="H17" s="6"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B18" s="10">
-        <v>20204203858</v>
+        <v>27237803618</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="12"/>
+        <v>10</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="12">
+        <v>30711205868</v>
+      </c>
       <c r="H18" s="6"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B19" s="10">
-        <v>27237803618</v>
+        <v>20218312536</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G19" s="12">
-        <v>30711205868</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="12"/>
       <c r="H19" s="6"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B20" s="10">
-        <v>20218312536</v>
+        <v>20216571623</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>8</v>
@@ -1172,70 +1167,75 @@
       <c r="H20" s="6"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B21" s="10">
-        <v>20216571623</v>
+        <v>20261985668</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>8</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="12"/>
       <c r="H21" s="6"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B22" s="10">
-        <v>20261985668</v>
+        <v>27368967241</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>8</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="12"/>
       <c r="H22" s="6"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="B23" s="10">
-        <v>27368967241</v>
+        <v>20233760847</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="12"/>
+        <v>10</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="12">
+        <v>30715935062</v>
+      </c>
       <c r="H23" s="6"/>
       <c r="I23" s="7"/>
-    </row>
-    <row r="24" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>64</v>
       </c>
@@ -1256,7 +1256,7 @@
       <c r="H24" s="6"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>66</v>
       </c>
@@ -1277,7 +1277,7 @@
       <c r="H25" s="6"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>68</v>
       </c>
@@ -1298,7 +1298,7 @@
       <c r="H26" s="6"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>70</v>
       </c>
@@ -1323,7 +1323,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>12</v>
       </c>
@@ -1344,7 +1344,7 @@
       <c r="H28" s="6"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>13</v>
       </c>
